--- a/DataTest/验证.xlsx
+++ b/DataTest/验证.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1035,15 +1035,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
